--- a/data/BuffConfig.xlsx
+++ b/data/BuffConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\projectRes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FCB7D8-B3BD-4415-865B-38DF211D0F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6169859B-55F2-4349-B2BE-B61BDC7688D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="4440" windowWidth="34875" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="34875" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>targetNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +99,10 @@
   </si>
   <si>
     <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = 己方， 2 = 敌方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,8 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -428,26 +431,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="52.25" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -470,13 +479,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -499,13 +505,10 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -527,8 +530,11 @@
       <c r="G4">
         <v>4</v>
       </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -549,6 +555,9 @@
       </c>
       <c r="G5">
         <v>4</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/BuffConfig.xlsx
+++ b/data/BuffConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6169859B-55F2-4349-B2BE-B61BDC7688D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7A5B94-9F74-42EE-8659-3E14E8061CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="34875" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="3555" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>1 = 己方， 2 = 敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级buff值，比如易伤25%。（百分比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级buff持续回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +446,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,6 +464,18 @@
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
